--- a/test/results/01.BasicCodonUsage/NS2B/NS2B.RSCU.xlsx
+++ b/test/results/01.BasicCodonUsage/NS2B/NS2B.RSCU.xlsx
@@ -253,16 +253,16 @@
     <t>TAT</t>
   </si>
   <si>
+    <t>LC002520</t>
+  </si>
+  <si>
     <t>KU955594</t>
   </si>
   <si>
-    <t>LC002520</t>
+    <t>KF383119</t>
   </si>
   <si>
     <t>KF383118</t>
-  </si>
-  <si>
-    <t>KF383119</t>
   </si>
   <si>
     <t>KF383115</t>
@@ -271,22 +271,22 @@
     <t>KF268949</t>
   </si>
   <si>
-    <t>KF268950</t>
-  </si>
-  <si>
     <t>KF268948</t>
   </si>
   <si>
-    <t>HQ234500</t>
+    <t>KF268950</t>
   </si>
   <si>
     <t>KF383116</t>
   </si>
   <si>
+    <t>HQ234501</t>
+  </si>
+  <si>
     <t>KU955595</t>
   </si>
   <si>
-    <t>HQ234501</t>
+    <t>HQ234500</t>
   </si>
   <si>
     <t>KU955592</t>
@@ -295,22 +295,22 @@
     <t>KU955591</t>
   </si>
   <si>
-    <t>KF383117</t>
-  </si>
-  <si>
     <t>KX601166</t>
   </si>
   <si>
-    <t>HQ234499</t>
+    <t>KF383117</t>
   </si>
   <si>
     <t>KU681082</t>
   </si>
   <si>
+    <t>EU545988</t>
+  </si>
+  <si>
     <t>KU955593</t>
   </si>
   <si>
-    <t>EU545988</t>
+    <t>HQ234499</t>
   </si>
   <si>
     <t>KX694532</t>
@@ -337,16 +337,19 @@
     <t>KU509998</t>
   </si>
   <si>
-    <t>KX838906</t>
+    <t>KX051563</t>
   </si>
   <si>
     <t>KU527068</t>
   </si>
   <si>
-    <t>KX051563</t>
+    <t>KX838906</t>
   </si>
   <si>
     <t>KX673530</t>
+  </si>
+  <si>
+    <t>KX838904</t>
   </si>
   <si>
     <t>KX832731</t>
@@ -355,13 +358,13 @@
     <t>KX838905</t>
   </si>
   <si>
-    <t>KX838904</t>
-  </si>
-  <si>
     <t>KX842449</t>
   </si>
   <si>
     <t>KU853012</t>
+  </si>
+  <si>
+    <t>KU853013</t>
   </si>
   <si>
     <t>KU729217</t>
@@ -370,19 +373,16 @@
     <t>KX280026</t>
   </si>
   <si>
-    <t>KU853013</t>
-  </si>
-  <si>
     <t>KX056898</t>
   </si>
   <si>
     <t>KU955590</t>
   </si>
   <si>
-    <t>KU740184</t>
+    <t>KX766028</t>
   </si>
   <si>
-    <t>KX766028</t>
+    <t>KU740184</t>
   </si>
   <si>
     <t>KU761564</t>
@@ -391,10 +391,10 @@
     <t>KU820898</t>
   </si>
   <si>
-    <t>KU365778</t>
+    <t>KX087101</t>
   </si>
   <si>
-    <t>KX087101</t>
+    <t>KU365778</t>
   </si>
   <si>
     <t>KU758877</t>
@@ -415,22 +415,22 @@
     <t>KU365780</t>
   </si>
   <si>
+    <t>KU365777</t>
+  </si>
+  <si>
     <t>KU870645</t>
   </si>
   <si>
-    <t>KU365777</t>
+    <t>KX694534</t>
   </si>
   <si>
-    <t>KX694534</t>
+    <t>KX262887</t>
   </si>
   <si>
     <t>KU501217</t>
   </si>
   <si>
     <t>KU501216</t>
-  </si>
-  <si>
-    <t>KX262887</t>
   </si>
   <si>
     <t>KX766029</t>
@@ -448,10 +448,10 @@
     <t>KU940228</t>
   </si>
   <si>
-    <t>KX520666</t>
+    <t>KU729218</t>
   </si>
   <si>
-    <t>KU729218</t>
+    <t>KX520666</t>
   </si>
   <si>
     <t>KX197205</t>
@@ -481,10 +481,10 @@
     <t>KX702400</t>
   </si>
   <si>
-    <t>KX247646</t>
+    <t>KX087102</t>
   </si>
   <si>
-    <t>KX087102</t>
+    <t>KX247646</t>
   </si>
   <si>
     <t>KU820897</t>
@@ -544,10 +544,10 @@
     <t>KX447516</t>
   </si>
   <si>
-    <t>KX447514</t>
+    <t>KX447515</t>
   </si>
   <si>
-    <t>KX447515</t>
+    <t>KX447514</t>
   </si>
   <si>
     <t>KX447509</t>
@@ -1273,13 +1273,13 @@
         <v>0.6</v>
       </c>
       <c r="Z4">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="AA4">
         <v>2.4</v>
       </c>
       <c r="AB4">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1455,13 +1455,13 @@
         <v>0.6</v>
       </c>
       <c r="Z5">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="AA5">
         <v>2.4</v>
       </c>
       <c r="AB5">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -2657,16 +2657,16 @@
         <v>87</v>
       </c>
       <c r="B12">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="D12">
-        <v>0.5</v>
+        <v>0.27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2675,10 +2675,10 @@
         <v>2</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="J12">
         <v>0.89</v>
@@ -2693,13 +2693,13 @@
         <v>0.67</v>
       </c>
       <c r="N12">
-        <v>1.23</v>
+        <v>1.54</v>
       </c>
       <c r="O12">
         <v>1.23</v>
       </c>
       <c r="P12">
-        <v>0.92</v>
+        <v>0.62</v>
       </c>
       <c r="Q12">
         <v>0.62</v>
@@ -2714,10 +2714,10 @@
         <v>1.5</v>
       </c>
       <c r="U12">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="V12">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="W12">
         <v>0.67</v>
@@ -2786,46 +2786,46 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT12">
-        <v>4.29</v>
+        <v>3.75</v>
       </c>
       <c r="AU12">
         <v>0</v>
       </c>
       <c r="AV12">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AW12">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AX12">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="AY12">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AZ12">
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="BB12">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="BC12">
         <v>0.86</v>
       </c>
       <c r="BD12">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="BE12">
         <v>1.71</v>
       </c>
       <c r="BF12">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="BG12">
         <v>0.5</v>
@@ -2839,16 +2839,16 @@
         <v>88</v>
       </c>
       <c r="B13">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="C13">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="E13">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>2</v>
       </c>
       <c r="H13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>0.89</v>
@@ -2908,13 +2908,13 @@
         <v>1.33</v>
       </c>
       <c r="Y13">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="Z13">
         <v>0.6</v>
       </c>
       <c r="AA13">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AB13">
         <v>1.2</v>
@@ -3239,13 +3239,13 @@
         <v>0.67</v>
       </c>
       <c r="N15">
-        <v>1.54</v>
+        <v>1.23</v>
       </c>
       <c r="O15">
         <v>1.23</v>
       </c>
       <c r="P15">
-        <v>0.62</v>
+        <v>0.92</v>
       </c>
       <c r="Q15">
         <v>0.62</v>
@@ -3260,25 +3260,25 @@
         <v>1.5</v>
       </c>
       <c r="U15">
+        <v>0.6</v>
+      </c>
+      <c r="V15">
+        <v>0.9</v>
+      </c>
+      <c r="W15">
+        <v>0.67</v>
+      </c>
+      <c r="X15">
+        <v>1.33</v>
+      </c>
+      <c r="Y15">
         <v>1.2</v>
       </c>
-      <c r="V15">
-        <v>0.3</v>
-      </c>
-      <c r="W15">
-        <v>0.67</v>
-      </c>
-      <c r="X15">
-        <v>1.33</v>
-      </c>
-      <c r="Y15">
-        <v>0.6</v>
-      </c>
       <c r="Z15">
         <v>0.6</v>
       </c>
       <c r="AA15">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AB15">
         <v>1.2</v>
@@ -3332,46 +3332,46 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="AT15">
-        <v>3.75</v>
+        <v>4.29</v>
       </c>
       <c r="AU15">
         <v>0</v>
       </c>
       <c r="AV15">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AW15">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AX15">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="AY15">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AZ15">
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="BB15">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="BC15">
         <v>0.86</v>
       </c>
       <c r="BD15">
-        <v>1.14</v>
+        <v>1.43</v>
       </c>
       <c r="BE15">
         <v>1.71</v>
       </c>
       <c r="BF15">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="BG15">
         <v>0.5</v>
@@ -3785,13 +3785,13 @@
         <v>0.67</v>
       </c>
       <c r="N18">
-        <v>1.23</v>
+        <v>1.54</v>
       </c>
       <c r="O18">
         <v>1.23</v>
       </c>
       <c r="P18">
-        <v>0.92</v>
+        <v>0.62</v>
       </c>
       <c r="Q18">
         <v>0.62</v>
@@ -3818,13 +3818,13 @@
         <v>1.33</v>
       </c>
       <c r="Y18">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="Z18">
         <v>0.6</v>
       </c>
       <c r="AA18">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AB18">
         <v>1.2</v>
@@ -3845,13 +3845,13 @@
         <v>1</v>
       </c>
       <c r="AH18">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AI18">
         <v>0</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AK18">
         <v>0</v>
@@ -3908,16 +3908,16 @@
         <v>2</v>
       </c>
       <c r="BC18">
+        <v>0.57</v>
+      </c>
+      <c r="BD18">
         <v>0.86</v>
       </c>
-      <c r="BD18">
-        <v>1.14</v>
-      </c>
       <c r="BE18">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="BF18">
-        <v>0.29</v>
+        <v>0.57</v>
       </c>
       <c r="BG18">
         <v>0.5</v>
@@ -3967,13 +3967,13 @@
         <v>0.67</v>
       </c>
       <c r="N19">
-        <v>1.54</v>
+        <v>1.23</v>
       </c>
       <c r="O19">
         <v>1.23</v>
       </c>
       <c r="P19">
-        <v>0.62</v>
+        <v>0.92</v>
       </c>
       <c r="Q19">
         <v>0.62</v>
@@ -4000,13 +4000,13 @@
         <v>1.33</v>
       </c>
       <c r="Y19">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="Z19">
         <v>0.6</v>
       </c>
       <c r="AA19">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AB19">
         <v>1.2</v>
@@ -4027,13 +4027,13 @@
         <v>1</v>
       </c>
       <c r="AH19">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AI19">
         <v>0</v>
       </c>
       <c r="AJ19">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AK19">
         <v>0</v>
@@ -4090,16 +4090,16 @@
         <v>2</v>
       </c>
       <c r="BC19">
-        <v>0.57</v>
+        <v>0.86</v>
       </c>
       <c r="BD19">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="BE19">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="BF19">
-        <v>0.57</v>
+        <v>0.29</v>
       </c>
       <c r="BG19">
         <v>0.5</v>
@@ -4113,22 +4113,22 @@
         <v>95</v>
       </c>
       <c r="B20">
-        <v>1.6</v>
+        <v>1.07</v>
       </c>
       <c r="C20">
         <v>0.8</v>
       </c>
       <c r="D20">
-        <v>0.53</v>
+        <v>1.07</v>
       </c>
       <c r="E20">
         <v>1.07</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0.44</v>
@@ -4152,13 +4152,13 @@
         <v>1.54</v>
       </c>
       <c r="O20">
-        <v>0.92</v>
+        <v>0.62</v>
       </c>
       <c r="P20">
         <v>0.62</v>
       </c>
       <c r="Q20">
-        <v>0.92</v>
+        <v>1.23</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -4167,28 +4167,28 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="U20">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="V20">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="W20">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="X20">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="Y20">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="Z20">
         <v>1.8</v>
       </c>
       <c r="AA20">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AE20">
         <v>2</v>
@@ -4206,10 +4206,10 @@
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH20">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AI20">
         <v>0</v>
@@ -4242,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AT20">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AU20">
         <v>0.75</v>
@@ -4272,22 +4272,22 @@
         <v>1.6</v>
       </c>
       <c r="BC20">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="BD20">
-        <v>0.57</v>
+        <v>1.23</v>
       </c>
       <c r="BE20">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="BF20">
-        <v>1.14</v>
+        <v>0.31</v>
       </c>
       <c r="BG20">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="BH20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:60">
@@ -4295,22 +4295,22 @@
         <v>96</v>
       </c>
       <c r="B21">
-        <v>1.07</v>
+        <v>0.8</v>
       </c>
       <c r="C21">
+        <v>1.07</v>
+      </c>
+      <c r="D21">
+        <v>1.33</v>
+      </c>
+      <c r="E21">
         <v>0.8</v>
       </c>
-      <c r="D21">
-        <v>1.07</v>
-      </c>
-      <c r="E21">
-        <v>1.07</v>
-      </c>
       <c r="F21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0.44</v>
@@ -4334,13 +4334,13 @@
         <v>1.54</v>
       </c>
       <c r="O21">
-        <v>0.62</v>
+        <v>0.31</v>
       </c>
       <c r="P21">
         <v>0.62</v>
       </c>
       <c r="Q21">
-        <v>1.23</v>
+        <v>1.54</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -4349,13 +4349,13 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="U21">
-        <v>1.09</v>
+        <v>0.9</v>
       </c>
       <c r="V21">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="W21">
         <v>1</v>
@@ -4364,13 +4364,13 @@
         <v>1</v>
       </c>
       <c r="Y21">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="Z21">
         <v>1.8</v>
       </c>
       <c r="AA21">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="AB21">
         <v>0</v>
@@ -4388,10 +4388,10 @@
         <v>0</v>
       </c>
       <c r="AG21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH21">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AI21">
         <v>0</v>
@@ -4454,16 +4454,16 @@
         <v>1.6</v>
       </c>
       <c r="BC21">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="BD21">
-        <v>1.23</v>
+        <v>1.43</v>
       </c>
       <c r="BE21">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="BF21">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="BG21">
         <v>1.5</v>
@@ -4659,22 +4659,22 @@
         <v>98</v>
       </c>
       <c r="B23">
+        <v>1.6</v>
+      </c>
+      <c r="C23">
         <v>0.8</v>
       </c>
-      <c r="C23">
-        <v>1.07</v>
-      </c>
       <c r="D23">
-        <v>1.33</v>
+        <v>0.53</v>
       </c>
       <c r="E23">
-        <v>0.8</v>
+        <v>1.07</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23">
         <v>0.44</v>
@@ -4698,13 +4698,13 @@
         <v>1.54</v>
       </c>
       <c r="O23">
-        <v>0.31</v>
+        <v>0.92</v>
       </c>
       <c r="P23">
         <v>0.62</v>
       </c>
       <c r="Q23">
-        <v>1.54</v>
+        <v>0.92</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -4722,10 +4722,10 @@
         <v>0.6</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="X23">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="Y23">
         <v>1.2</v>
@@ -4734,7 +4734,7 @@
         <v>1.8</v>
       </c>
       <c r="AA23">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AB23">
         <v>0</v>
@@ -4743,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="AD23">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AE23">
         <v>2</v>
@@ -4788,10 +4788,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AT23">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="AU23">
         <v>0.75</v>
@@ -4821,19 +4821,19 @@
         <v>0.29</v>
       </c>
       <c r="BD23">
-        <v>1.43</v>
+        <v>0.57</v>
       </c>
       <c r="BE23">
         <v>2</v>
       </c>
       <c r="BF23">
-        <v>0.29</v>
+        <v>1.14</v>
       </c>
       <c r="BG23">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="BH23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:60">
@@ -7935,13 +7935,13 @@
         <v>116</v>
       </c>
       <c r="B41">
-        <v>1.07</v>
+        <v>1.33</v>
       </c>
       <c r="C41">
         <v>0.8</v>
       </c>
       <c r="D41">
-        <v>1.07</v>
+        <v>0.8</v>
       </c>
       <c r="E41">
         <v>1.07</v>
@@ -7989,13 +7989,13 @@
         <v>0</v>
       </c>
       <c r="T41">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="U41">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="V41">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="W41">
         <v>0.67</v>
@@ -8171,13 +8171,13 @@
         <v>0</v>
       </c>
       <c r="T42">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="U42">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="V42">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="W42">
         <v>0.67</v>
@@ -8299,13 +8299,13 @@
         <v>118</v>
       </c>
       <c r="B43">
-        <v>1.33</v>
+        <v>1.07</v>
       </c>
       <c r="C43">
         <v>0.8</v>
       </c>
       <c r="D43">
-        <v>0.8</v>
+        <v>1.07</v>
       </c>
       <c r="E43">
         <v>1.07</v>
@@ -9660,10 +9660,10 @@
         <v>0.6</v>
       </c>
       <c r="AE50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG50">
         <v>0.5</v>
@@ -9842,10 +9842,10 @@
         <v>0.6</v>
       </c>
       <c r="AE51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG51">
         <v>0.5</v>
@@ -11188,16 +11188,16 @@
         <v>1.6</v>
       </c>
       <c r="BC58">
-        <v>0.53</v>
+        <v>0.57</v>
       </c>
       <c r="BD58">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="BE58">
-        <v>1.87</v>
+        <v>1.71</v>
       </c>
       <c r="BF58">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="BG58">
         <v>2</v>
@@ -11370,16 +11370,16 @@
         <v>1.6</v>
       </c>
       <c r="BC59">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="BD59">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="BE59">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="BF59">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="BG59">
         <v>2</v>
@@ -11605,10 +11605,10 @@
         <v>1</v>
       </c>
       <c r="L61">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="M61">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="N61">
         <v>1.54</v>
@@ -11969,10 +11969,10 @@
         <v>1</v>
       </c>
       <c r="L63">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="N63">
         <v>1.54</v>
@@ -13127,13 +13127,13 @@
         <v>0.5</v>
       </c>
       <c r="AH69">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AI69">
         <v>0</v>
       </c>
       <c r="AJ69">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK69">
         <v>0</v>
@@ -13309,13 +13309,13 @@
         <v>0.5</v>
       </c>
       <c r="AH70">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AI70">
         <v>0</v>
       </c>
       <c r="AJ70">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AK70">
         <v>0</v>
@@ -18855,16 +18855,16 @@
         <v>176</v>
       </c>
       <c r="B101">
-        <v>0.86</v>
+        <v>1.07</v>
       </c>
       <c r="C101">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="D101">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="E101">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -19014,16 +19014,16 @@
         <v>1.6</v>
       </c>
       <c r="BC101">
-        <v>0.8</v>
+        <v>0.57</v>
       </c>
       <c r="BD101">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="BE101">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="BF101">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="BG101">
         <v>2</v>
@@ -19037,16 +19037,16 @@
         <v>177</v>
       </c>
       <c r="B102">
-        <v>1.07</v>
+        <v>0.86</v>
       </c>
       <c r="C102">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="D102">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="E102">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -19196,16 +19196,16 @@
         <v>1.6</v>
       </c>
       <c r="BC102">
-        <v>0.57</v>
+        <v>0.8</v>
       </c>
       <c r="BD102">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="BE102">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="BF102">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="BG102">
         <v>2</v>

--- a/test/results/01.BasicCodonUsage/NS2B/NS2B.RSCU.xlsx
+++ b/test/results/01.BasicCodonUsage/NS2B/NS2B.RSCU.xlsx
@@ -253,13 +253,13 @@
     <t>TAT</t>
   </si>
   <si>
-    <t>LC002520</t>
+    <t>KF383119</t>
   </si>
   <si>
     <t>KU955594</t>
   </si>
   <si>
-    <t>KF383119</t>
+    <t>LC002520</t>
   </si>
   <si>
     <t>KF383118</t>
@@ -271,13 +271,13 @@
     <t>KF268949</t>
   </si>
   <si>
+    <t>KF268950</t>
+  </si>
+  <si>
     <t>KF268948</t>
   </si>
   <si>
-    <t>KF268950</t>
-  </si>
-  <si>
-    <t>KF383116</t>
+    <t>HQ234500</t>
   </si>
   <si>
     <t>HQ234501</t>
@@ -286,7 +286,7 @@
     <t>KU955595</t>
   </si>
   <si>
-    <t>HQ234500</t>
+    <t>KF383116</t>
   </si>
   <si>
     <t>KU955592</t>
@@ -301,16 +301,16 @@
     <t>KF383117</t>
   </si>
   <si>
-    <t>KU681082</t>
+    <t>HQ234499</t>
   </si>
   <si>
     <t>EU545988</t>
   </si>
   <si>
-    <t>KU955593</t>
+    <t>KU681082</t>
   </si>
   <si>
-    <t>HQ234499</t>
+    <t>KU955593</t>
   </si>
   <si>
     <t>KX694532</t>
@@ -328,19 +328,19 @@
     <t>KU744693</t>
   </si>
   <si>
-    <t>KX197192</t>
+    <t>KU321639</t>
   </si>
   <si>
-    <t>KU321639</t>
+    <t>KX197192</t>
   </si>
   <si>
     <t>KU509998</t>
   </si>
   <si>
-    <t>KX051563</t>
+    <t>KU527068</t>
   </si>
   <si>
-    <t>KU527068</t>
+    <t>KX051563</t>
   </si>
   <si>
     <t>KX838906</t>
@@ -415,10 +415,10 @@
     <t>KU365780</t>
   </si>
   <si>
-    <t>KU365777</t>
+    <t>KU870645</t>
   </si>
   <si>
-    <t>KU870645</t>
+    <t>KU365777</t>
   </si>
   <si>
     <t>KX694534</t>
@@ -436,10 +436,10 @@
     <t>KX766029</t>
   </si>
   <si>
-    <t>KX446950</t>
+    <t>KX247632</t>
   </si>
   <si>
-    <t>KX247632</t>
+    <t>KX446950</t>
   </si>
   <si>
     <t>KX446951</t>
@@ -448,16 +448,13 @@
     <t>KU940228</t>
   </si>
   <si>
+    <t>KX520666</t>
+  </si>
+  <si>
     <t>KU729218</t>
   </si>
   <si>
-    <t>KX520666</t>
-  </si>
-  <si>
     <t>KX197205</t>
-  </si>
-  <si>
-    <t>KU497555</t>
   </si>
   <si>
     <t>KU991811</t>
@@ -466,7 +463,13 @@
     <t>KX548902</t>
   </si>
   <si>
+    <t>KU497555</t>
+  </si>
+  <si>
     <t>KU647676</t>
+  </si>
+  <si>
+    <t>KX198135</t>
   </si>
   <si>
     <t>KU922923</t>
@@ -475,22 +478,19 @@
     <t>KU922960</t>
   </si>
   <si>
-    <t>KX198135</t>
+    <t>KX702400</t>
   </si>
   <si>
-    <t>KX702400</t>
+    <t>KX247646</t>
   </si>
   <si>
     <t>KX087102</t>
   </si>
   <si>
-    <t>KX247646</t>
+    <t>KX156775</t>
   </si>
   <si>
     <t>KU820897</t>
-  </si>
-  <si>
-    <t>KX156775</t>
   </si>
   <si>
     <t>KX156774</t>
@@ -505,10 +505,10 @@
     <t>KX447511</t>
   </si>
   <si>
-    <t>KX369547</t>
+    <t>KX447512</t>
   </si>
   <si>
-    <t>KX447512</t>
+    <t>KX369547</t>
   </si>
   <si>
     <t>KX447513</t>
@@ -544,10 +544,10 @@
     <t>KX447516</t>
   </si>
   <si>
-    <t>KX447515</t>
+    <t>KX447514</t>
   </si>
   <si>
-    <t>KX447514</t>
+    <t>KX447515</t>
   </si>
   <si>
     <t>KX447509</t>
@@ -1273,13 +1273,13 @@
         <v>0.6</v>
       </c>
       <c r="Z4">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="AA4">
         <v>2.4</v>
       </c>
       <c r="AB4">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1637,13 +1637,13 @@
         <v>0.6</v>
       </c>
       <c r="Z6">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="AA6">
         <v>2.4</v>
       </c>
       <c r="AB6">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -2657,16 +2657,16 @@
         <v>87</v>
       </c>
       <c r="B12">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="C12">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="E12">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2675,10 +2675,10 @@
         <v>2</v>
       </c>
       <c r="H12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>0.89</v>
@@ -2693,13 +2693,13 @@
         <v>0.67</v>
       </c>
       <c r="N12">
-        <v>1.54</v>
+        <v>1.23</v>
       </c>
       <c r="O12">
         <v>1.23</v>
       </c>
       <c r="P12">
-        <v>0.62</v>
+        <v>0.92</v>
       </c>
       <c r="Q12">
         <v>0.62</v>
@@ -2714,10 +2714,10 @@
         <v>1.5</v>
       </c>
       <c r="U12">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="V12">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="W12">
         <v>0.67</v>
@@ -2786,46 +2786,46 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="AT12">
-        <v>3.75</v>
+        <v>4.29</v>
       </c>
       <c r="AU12">
         <v>0</v>
       </c>
       <c r="AV12">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AW12">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AX12">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="AY12">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AZ12">
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="BB12">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="BC12">
         <v>0.86</v>
       </c>
       <c r="BD12">
-        <v>1.14</v>
+        <v>1.43</v>
       </c>
       <c r="BE12">
         <v>1.71</v>
       </c>
       <c r="BF12">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="BG12">
         <v>0.5</v>
@@ -3203,16 +3203,16 @@
         <v>90</v>
       </c>
       <c r="B15">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="D15">
-        <v>0.5</v>
+        <v>0.27</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -3221,10 +3221,10 @@
         <v>2</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="J15">
         <v>0.89</v>
@@ -3239,13 +3239,13 @@
         <v>0.67</v>
       </c>
       <c r="N15">
-        <v>1.23</v>
+        <v>1.54</v>
       </c>
       <c r="O15">
         <v>1.23</v>
       </c>
       <c r="P15">
-        <v>0.92</v>
+        <v>0.62</v>
       </c>
       <c r="Q15">
         <v>0.62</v>
@@ -3260,10 +3260,10 @@
         <v>1.5</v>
       </c>
       <c r="U15">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="V15">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="W15">
         <v>0.67</v>
@@ -3332,46 +3332,46 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT15">
-        <v>4.29</v>
+        <v>3.75</v>
       </c>
       <c r="AU15">
         <v>0</v>
       </c>
       <c r="AV15">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AW15">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AX15">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="AY15">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AZ15">
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="BB15">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="BC15">
         <v>0.86</v>
       </c>
       <c r="BD15">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="BE15">
         <v>1.71</v>
       </c>
       <c r="BF15">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="BG15">
         <v>0.5</v>
@@ -4113,22 +4113,22 @@
         <v>95</v>
       </c>
       <c r="B20">
-        <v>1.07</v>
+        <v>1.6</v>
       </c>
       <c r="C20">
         <v>0.8</v>
       </c>
       <c r="D20">
-        <v>1.07</v>
+        <v>0.53</v>
       </c>
       <c r="E20">
         <v>1.07</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <v>0.44</v>
@@ -4152,13 +4152,13 @@
         <v>1.54</v>
       </c>
       <c r="O20">
-        <v>0.62</v>
+        <v>0.92</v>
       </c>
       <c r="P20">
         <v>0.62</v>
       </c>
       <c r="Q20">
-        <v>1.23</v>
+        <v>0.92</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -4167,28 +4167,28 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="U20">
-        <v>1.09</v>
+        <v>0.9</v>
       </c>
       <c r="V20">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="Y20">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="Z20">
         <v>1.8</v>
       </c>
       <c r="AA20">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="AD20">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AE20">
         <v>2</v>
@@ -4206,10 +4206,10 @@
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH20">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AI20">
         <v>0</v>
@@ -4242,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AT20">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="AU20">
         <v>0.75</v>
@@ -4272,22 +4272,22 @@
         <v>1.6</v>
       </c>
       <c r="BC20">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="BD20">
-        <v>1.23</v>
+        <v>0.57</v>
       </c>
       <c r="BE20">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="BF20">
-        <v>0.31</v>
+        <v>1.14</v>
       </c>
       <c r="BG20">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="BH20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:60">
@@ -4477,22 +4477,22 @@
         <v>97</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0.44</v>
@@ -4531,13 +4531,13 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="U22">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="V22">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="W22">
         <v>1</v>
@@ -4570,10 +4570,10 @@
         <v>0</v>
       </c>
       <c r="AG22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH22">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AI22">
         <v>0</v>
@@ -4624,28 +4624,28 @@
         <v>0</v>
       </c>
       <c r="AY22">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AZ22">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="BA22">
         <v>0</v>
       </c>
       <c r="BB22">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="BC22">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="BD22">
-        <v>1.43</v>
+        <v>1.23</v>
       </c>
       <c r="BE22">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="BF22">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="BG22">
         <v>1.5</v>
@@ -4659,22 +4659,22 @@
         <v>98</v>
       </c>
       <c r="B23">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0.53</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>0.44</v>
@@ -4698,13 +4698,13 @@
         <v>1.54</v>
       </c>
       <c r="O23">
-        <v>0.92</v>
+        <v>0.62</v>
       </c>
       <c r="P23">
         <v>0.62</v>
       </c>
       <c r="Q23">
-        <v>0.92</v>
+        <v>1.23</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -4722,19 +4722,19 @@
         <v>0.6</v>
       </c>
       <c r="W23">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="X23">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="Y23">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="Z23">
         <v>1.8</v>
       </c>
       <c r="AA23">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="AB23">
         <v>0</v>
@@ -4743,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AE23">
         <v>2</v>
@@ -4788,10 +4788,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AT23">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AU23">
         <v>0.75</v>
@@ -4806,34 +4806,34 @@
         <v>0</v>
       </c>
       <c r="AY23">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AZ23">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="BA23">
         <v>0</v>
       </c>
       <c r="BB23">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="BC23">
         <v>0.29</v>
       </c>
       <c r="BD23">
-        <v>0.57</v>
+        <v>1.43</v>
       </c>
       <c r="BE23">
         <v>2</v>
       </c>
       <c r="BF23">
-        <v>1.14</v>
+        <v>0.29</v>
       </c>
       <c r="BG23">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="BH23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:60">
@@ -11188,16 +11188,16 @@
         <v>1.6</v>
       </c>
       <c r="BC58">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="BD58">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="BE58">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="BF58">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="BG58">
         <v>2</v>
@@ -11370,16 +11370,16 @@
         <v>1.6</v>
       </c>
       <c r="BC59">
-        <v>0.53</v>
+        <v>0.57</v>
       </c>
       <c r="BD59">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="BE59">
-        <v>1.87</v>
+        <v>1.71</v>
       </c>
       <c r="BF59">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="BG59">
         <v>2</v>
@@ -13127,13 +13127,13 @@
         <v>0.5</v>
       </c>
       <c r="AH69">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AI69">
         <v>0</v>
       </c>
       <c r="AJ69">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AK69">
         <v>0</v>
@@ -13309,13 +13309,13 @@
         <v>0.5</v>
       </c>
       <c r="AH70">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AI70">
         <v>0</v>
       </c>
       <c r="AJ70">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK70">
         <v>0</v>
@@ -13595,10 +13595,10 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="I72">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -13959,10 +13959,10 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="I74">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -14317,16 +14317,16 @@
         <v>1.07</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="I76">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -14681,16 +14681,16 @@
         <v>1.07</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="I78">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -15559,13 +15559,13 @@
         <v>0.57</v>
       </c>
       <c r="BD82">
-        <v>1.14</v>
+        <v>1.43</v>
       </c>
       <c r="BE82">
         <v>1.71</v>
       </c>
       <c r="BF82">
-        <v>0.57</v>
+        <v>0.29</v>
       </c>
       <c r="BG82">
         <v>2</v>
@@ -15741,13 +15741,13 @@
         <v>0.57</v>
       </c>
       <c r="BD83">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="BE83">
         <v>1.71</v>
       </c>
       <c r="BF83">
-        <v>0.29</v>
+        <v>0.57</v>
       </c>
       <c r="BG83">
         <v>2</v>
@@ -18855,16 +18855,16 @@
         <v>176</v>
       </c>
       <c r="B101">
-        <v>1.07</v>
+        <v>0.86</v>
       </c>
       <c r="C101">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="D101">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="E101">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -19014,16 +19014,16 @@
         <v>1.6</v>
       </c>
       <c r="BC101">
-        <v>0.57</v>
+        <v>0.8</v>
       </c>
       <c r="BD101">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="BE101">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="BF101">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="BG101">
         <v>2</v>
@@ -19037,16 +19037,16 @@
         <v>177</v>
       </c>
       <c r="B102">
-        <v>0.86</v>
+        <v>1.07</v>
       </c>
       <c r="C102">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="D102">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="E102">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -19196,16 +19196,16 @@
         <v>1.6</v>
       </c>
       <c r="BC102">
-        <v>0.8</v>
+        <v>0.57</v>
       </c>
       <c r="BD102">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="BE102">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="BF102">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="BG102">
         <v>2</v>
